--- a/xlsx/Wiki_intext.xlsx
+++ b/xlsx/Wiki_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>Wiki</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Wikia</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Wiki</t>
+    <t>政策_政策_维基百科_Wiki</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%BE%B7%C2%B7%E5%9D%8E%E5%AE%81%E5%AE%89</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%96%87%E6%9C%AC%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>超文本系統</t>
+    <t>超文本系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>蘋果電腦</t>
+    <t>苹果电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HyperCard</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BB%B6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
   </si>
   <si>
-    <t>應用程式伺服器</t>
+    <t>应用程式伺服器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%9C%8D%E5%8A%A1%E5%99%A8</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%8E%9B</t>
   </si>
   <si>
-    <t>外掛</t>
+    <t>外挂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PmWiki</t>
@@ -227,13 +227,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%AE%B9%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>內容管理系統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知識管理</t>
+    <t>知识管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E5%85%B1%E4%BA%AB</t>
@@ -275,13 +272,13 @@
     <t>http://webcache.googleusercontent.com/search?q=cache:srN1F9V1-6gJ:www.nlica.org.tw/wiki/attach/Vidio0220050111/Use-wiki.doc+Wiki%E4%B8%8D%E5%AE%8C%E5%85%A8%E6%89%8B%E5%86%8A&amp;cd=1&amp;hl=zh-TW&amp;ct=clnk&amp;gl=tw&amp;client=firefox-a</t>
   </si>
   <si>
-    <t>網絡新潮文化：Wiki不完全手冊</t>
+    <t>网络新潮文化：Wiki不完全手册</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
   <si>
     <t>http://zh.community.wikia.com/wiki/%E4%B8%AD%E6%96%87Wikia%E5%88%97%E8%A1%A8</t>
@@ -293,7 +290,7 @@
     <t>https://www.mediawiki.org/wiki/Sites_using_MediaWiki/zh</t>
   </si>
   <si>
-    <t>使用MediaWiki軟件的中文站點列表</t>
+    <t>使用MediaWiki软件的中文站点列表</t>
   </si>
   <si>
     <t>http://zh.scratchpad.wikia.com/wiki/中文wiki站</t>
@@ -305,7 +302,7 @@
     <t>http://zh.scratchpad.wikia.com/wiki/免費wiki服務列表</t>
   </si>
   <si>
-    <t>免費wiki服務列表</t>
+    <t>免费wiki服务列表</t>
   </si>
   <si>
     <t>http://index.wikia.com/wiki/中文MediaWiki站列表</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>Wiki軟體</t>
+    <t>Wiki软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E6%A0%87%E8%AE%B0%E8%AF%AD%E8%A8%80</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4%E6%AF%94%E8%BC%83%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki農場比較表</t>
+    <t>Wiki农场比较表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_wikis</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>通訊軟體</t>
+    <t>通讯软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%BD%91%E7%BB%9C%E6%9C%8D%E5%8A%A1</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1872,7 +1869,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1898,10 +1895,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1927,10 +1924,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1956,10 +1953,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -1985,10 +1982,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2014,10 +2011,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2043,10 +2040,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2072,10 +2069,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2101,10 +2098,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2130,10 +2127,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2159,10 +2156,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2188,10 +2185,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2217,10 +2214,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2246,10 +2243,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2275,10 +2272,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2304,10 +2301,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2333,10 +2330,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2362,10 +2359,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2391,10 +2388,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2420,10 +2417,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2449,10 +2446,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2478,10 +2475,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2507,10 +2504,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -2536,10 +2533,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2565,10 +2562,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2594,10 +2591,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2623,10 +2620,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2652,10 +2649,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2681,10 +2678,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2710,10 +2707,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2739,10 +2736,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2768,10 +2765,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2797,10 +2794,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2826,10 +2823,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2855,10 +2852,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2884,10 +2881,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2913,10 +2910,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2942,10 +2939,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2971,10 +2968,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3000,10 +2997,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3029,10 +3026,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3058,10 +3055,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3087,10 +3084,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3116,10 +3113,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3145,10 +3142,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3174,10 +3171,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3232,10 +3229,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3261,10 +3258,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3290,10 +3287,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
